--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>1.719985243011024</v>
+        <v>1.782259294303912</v>
       </c>
       <c r="C3">
-        <v>0.2028382723242572</v>
+        <v>-0.08289353495386509</v>
       </c>
       <c r="D3">
-        <v>-0.9007664217083988</v>
+        <v>-0.9921462019007898</v>
       </c>
       <c r="E3">
         <v>-1.120856461469888</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-1.120856461469888</v>
       </c>
-      <c r="BA3">
-        <v>-1.120856461469888</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>1.769854046483332</v>
+        <v>1.840084080815463</v>
       </c>
       <c r="C4">
-        <v>1.135471259800513</v>
+        <v>0.2227880631417101</v>
       </c>
       <c r="D4">
-        <v>0.08867075651093348</v>
+        <v>-0.3230348957779294</v>
       </c>
       <c r="E4">
-        <v>-0.5959239132369731</v>
+        <v>-0.363786394693788</v>
       </c>
       <c r="F4">
-        <v>0.3150445116460121</v>
+        <v>0.2467309912830284</v>
       </c>
       <c r="G4">
         <v>0.2946875655135184</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>0.2946875655135184</v>
       </c>
-      <c r="BA4">
-        <v>0.2946875655135184</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.6792393591446677</v>
-      </c>
       <c r="D5">
-        <v>-0.1405718955160729</v>
+        <v>-0.3323859540900087</v>
       </c>
       <c r="E5">
-        <v>0.003591113541201452</v>
+        <v>-0.3968757761298791</v>
       </c>
       <c r="F5">
-        <v>0.3477227194487176</v>
+        <v>-0.06959526544320083</v>
       </c>
       <c r="G5">
-        <v>0.6309321758273256</v>
+        <v>-0.2139598932957232</v>
       </c>
       <c r="H5">
-        <v>1.394716403166685</v>
+        <v>1.160201558804674</v>
       </c>
       <c r="I5">
         <v>1.242549344471122</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>1.242549344471122</v>
       </c>
-      <c r="BA5">
-        <v>1.242549344471122</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.4216507551922932</v>
-      </c>
       <c r="F6">
-        <v>0.01438502117916407</v>
+        <v>-0.1383094607783963</v>
       </c>
       <c r="G6">
-        <v>0.850308768043373</v>
+        <v>-0.4829805246118979</v>
       </c>
       <c r="H6">
-        <v>1.45386720445293</v>
+        <v>0.2932139896134167</v>
       </c>
       <c r="I6">
-        <v>2.01634251950924</v>
+        <v>0.903223459378788</v>
       </c>
       <c r="J6">
-        <v>1.129570842833005</v>
+        <v>1.048604932640185</v>
       </c>
       <c r="K6">
         <v>1.180122656701199</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>1.180122656701199</v>
       </c>
-      <c r="BA6">
-        <v>1.180122656701199</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.7201106431553361</v>
-      </c>
       <c r="H7">
-        <v>1.195730262802042</v>
+        <v>0.2328086450296141</v>
       </c>
       <c r="I7">
-        <v>2.274766272843265</v>
+        <v>0.723280697834694</v>
       </c>
       <c r="J7">
-        <v>1.297897942144677</v>
+        <v>1.078804187516891</v>
       </c>
       <c r="K7">
-        <v>1.939772997598466</v>
+        <v>1.31837503023402</v>
       </c>
       <c r="L7">
-        <v>1.129049187797948</v>
+        <v>1.06837811337479</v>
       </c>
       <c r="M7">
         <v>1.381744454873757</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>1.381744454873757</v>
       </c>
-      <c r="BA7">
-        <v>1.381744454873757</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.898459073319936</v>
-      </c>
       <c r="J8">
-        <v>1.250916791544721</v>
+        <v>1.043680860183693</v>
       </c>
       <c r="K8">
-        <v>2.039327457136553</v>
+        <v>1.185259818806217</v>
       </c>
       <c r="L8">
-        <v>1.685315054620462</v>
+        <v>1.25598608434605</v>
       </c>
       <c r="M8">
-        <v>2.090021059558644</v>
+        <v>1.658305347589661</v>
       </c>
       <c r="N8">
-        <v>1.633367354477078</v>
+        <v>1.435208340819005</v>
       </c>
       <c r="O8">
         <v>1.404039427736437</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>1.404039427736437</v>
       </c>
-      <c r="BA8">
-        <v>1.404039427736437</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.812186491006229</v>
-      </c>
       <c r="L9">
-        <v>1.407367165006268</v>
+        <v>1.286157117685827</v>
       </c>
       <c r="M9">
-        <v>1.898166639055665</v>
+        <v>1.366951734963395</v>
       </c>
       <c r="N9">
-        <v>2.237416596049657</v>
+        <v>1.407107513712802</v>
       </c>
       <c r="O9">
-        <v>2.084642581417584</v>
+        <v>1.488472133572305</v>
       </c>
       <c r="P9">
-        <v>1.649731081352623</v>
+        <v>1.577589817310243</v>
       </c>
       <c r="Q9">
         <v>1.593617458167307</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>1.593617458167307</v>
       </c>
-      <c r="BA9">
-        <v>1.593617458167307</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.771650111080936</v>
-      </c>
       <c r="N10">
-        <v>1.731125836988001</v>
+        <v>1.366951734963395</v>
       </c>
       <c r="O10">
-        <v>2.217336041569018</v>
+        <v>1.441237482553381</v>
       </c>
       <c r="P10">
-        <v>1.794206111816399</v>
+        <v>1.464859320654099</v>
       </c>
       <c r="Q10">
-        <v>1.521991363853026</v>
+        <v>1.644157643645183</v>
       </c>
       <c r="R10">
-        <v>2.031337289618551</v>
+        <v>1.979569114089963</v>
       </c>
       <c r="S10">
         <v>1.885212754467758</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>1.885212754467758</v>
       </c>
-      <c r="BA10">
-        <v>1.885212754467758</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.844611494247483</v>
-      </c>
       <c r="P11">
-        <v>1.546742512507926</v>
+        <v>1.449109184169628</v>
       </c>
       <c r="Q11">
-        <v>1.58701150079712</v>
+        <v>1.647704289169027</v>
       </c>
       <c r="R11">
-        <v>1.877252575451061</v>
+        <v>1.639881111696151</v>
       </c>
       <c r="S11">
-        <v>1.6904035303825</v>
+        <v>1.586470485311331</v>
       </c>
       <c r="T11">
-        <v>1.81400703472574</v>
+        <v>1.815212363528707</v>
       </c>
       <c r="U11">
         <v>1.877372574190161</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>1.877372574190161</v>
       </c>
-      <c r="BA11">
-        <v>1.877372574190161</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.595991771621907</v>
-      </c>
       <c r="R12">
-        <v>1.891831384134801</v>
+        <v>1.603672482622964</v>
       </c>
       <c r="S12">
-        <v>1.868065712004863</v>
+        <v>1.652736919119047</v>
       </c>
       <c r="T12">
-        <v>1.771330166535856</v>
+        <v>1.806931013599544</v>
       </c>
       <c r="U12">
-        <v>2.014077225132471</v>
+        <v>1.974604558490256</v>
       </c>
       <c r="V12">
-        <v>2.208009493344054</v>
+        <v>2.140635848901895</v>
       </c>
       <c r="W12">
-        <v>2.300089002375394</v>
+        <v>2.284026378382942</v>
       </c>
       <c r="X12">
-        <v>2.296241910075758</v>
+        <v>2.336516087993035</v>
       </c>
       <c r="Y12">
         <v>2.279995067217899</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>2.279995067217899</v>
       </c>
-      <c r="BA12">
-        <v>2.279995067217899</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.957017620989787</v>
-      </c>
-      <c r="S13">
-        <v>1.833087405671829</v>
-      </c>
       <c r="T13">
-        <v>1.700739554904152</v>
+        <v>1.796783738056584</v>
       </c>
       <c r="U13">
-        <v>1.891951919304335</v>
+        <v>1.893938831797337</v>
       </c>
       <c r="V13">
-        <v>2.16843088950498</v>
+        <v>1.99288634244883</v>
       </c>
       <c r="W13">
-        <v>2.190100401513395</v>
+        <v>2.119133965447961</v>
       </c>
       <c r="X13">
-        <v>1.948889539247078</v>
+        <v>2.162438527487853</v>
       </c>
       <c r="Y13">
-        <v>1.88787455560655</v>
+        <v>1.93172124148786</v>
       </c>
       <c r="Z13">
-        <v>1.224414593777601</v>
+        <v>1.404530461900833</v>
       </c>
       <c r="AA13">
-        <v>1.110508995085002</v>
+        <v>1.264761787657309</v>
       </c>
       <c r="AB13">
-        <v>1.120504106595632</v>
+        <v>1.17909021197069</v>
       </c>
       <c r="AC13">
         <v>1.025257057800411</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>1.025257057800411</v>
       </c>
-      <c r="BA13">
-        <v>1.025257057800411</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.791977248893262</v>
-      </c>
-      <c r="U14">
-        <v>1.964918776024138</v>
-      </c>
-      <c r="V14">
-        <v>2.062803649639045</v>
-      </c>
       <c r="W14">
-        <v>2.109468587447139</v>
+        <v>2.083122398735981</v>
       </c>
       <c r="X14">
-        <v>1.99873072619845</v>
+        <v>2.071818698227212</v>
       </c>
       <c r="Y14">
-        <v>1.618423317420281</v>
+        <v>1.970775328194052</v>
       </c>
       <c r="Z14">
-        <v>1.331255476865678</v>
+        <v>1.887821778955101</v>
       </c>
       <c r="AA14">
-        <v>1.400566035871109</v>
+        <v>1.798687504247187</v>
       </c>
       <c r="AB14">
-        <v>1.381641980784787</v>
+        <v>1.636329093826605</v>
       </c>
       <c r="AC14">
-        <v>0.6487450558480656</v>
+        <v>1.008270799755984</v>
       </c>
       <c r="AD14">
-        <v>0.5563247180809361</v>
+        <v>0.5345697479163913</v>
       </c>
       <c r="AE14">
-        <v>-1.000425304790598</v>
+        <v>0.824608016336259</v>
       </c>
       <c r="AF14">
-        <v>-1.841794035573197</v>
+        <v>-1.788000783651811</v>
       </c>
       <c r="AG14">
         <v>-1.788000783651811</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-1.788000783651811</v>
       </c>
-      <c r="BA14">
-        <v>-1.788000783651811</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>2.152283035304348</v>
-      </c>
-      <c r="W15">
-        <v>2.208061439406039</v>
-      </c>
-      <c r="X15">
-        <v>2.084384165201381</v>
-      </c>
-      <c r="Y15">
-        <v>1.41021678652562</v>
-      </c>
-      <c r="Z15">
-        <v>1.189300097774093</v>
-      </c>
       <c r="AA15">
-        <v>1.422445580970577</v>
+        <v>1.839044560557102</v>
       </c>
       <c r="AB15">
-        <v>1.471150850746494</v>
+        <v>1.736580578290958</v>
       </c>
       <c r="AC15">
-        <v>1.523187652092983</v>
+        <v>1.468343000448269</v>
       </c>
       <c r="AD15">
-        <v>1.587078554743204</v>
+        <v>1.247274949485733</v>
       </c>
       <c r="AE15">
-        <v>3.013584382764045</v>
+        <v>1.395219579261608</v>
       </c>
       <c r="AF15">
-        <v>2.859952625832229</v>
+        <v>-0.02261741485058977</v>
       </c>
       <c r="AG15">
-        <v>2.99720978720075</v>
+        <v>-1.119700950349478</v>
       </c>
       <c r="AH15">
-        <v>1.264747916836839</v>
+        <v>-2.680286313062752</v>
       </c>
       <c r="AI15">
-        <v>-0.5713481720502012</v>
+        <v>-1.4191429117966</v>
       </c>
       <c r="AJ15">
-        <v>-0.2827693069175186</v>
+        <v>-1.098964423305859</v>
       </c>
       <c r="AK15">
         <v>-1.098964423305859</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-1.098964423305859</v>
       </c>
-      <c r="BA15">
-        <v>-1.098964423305859</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.569362917164385</v>
-      </c>
-      <c r="Z16">
-        <v>1.162559667457708</v>
-      </c>
-      <c r="AA16">
-        <v>1.228028929007619</v>
-      </c>
-      <c r="AB16">
-        <v>1.24186135425024</v>
-      </c>
-      <c r="AC16">
-        <v>1.405095417037283</v>
-      </c>
-      <c r="AD16">
-        <v>1.476860070553898</v>
-      </c>
       <c r="AE16">
-        <v>2.178265239956523</v>
+        <v>1.306001555547232</v>
       </c>
       <c r="AF16">
-        <v>2.035270475888051</v>
+        <v>-0.07129657200888317</v>
       </c>
       <c r="AG16">
-        <v>2.016354815608512</v>
+        <v>-0.6741130548587049</v>
       </c>
       <c r="AH16">
-        <v>3.566910651400446</v>
+        <v>-2.013357217277445</v>
       </c>
       <c r="AI16">
-        <v>4.71430177854022</v>
+        <v>-0.1125839228000469</v>
       </c>
       <c r="AJ16">
-        <v>6.200092505048471</v>
+        <v>1.055324027461602</v>
       </c>
       <c r="AK16">
-        <v>4.895062464652677</v>
+        <v>0.5759895884974942</v>
       </c>
       <c r="AL16">
-        <v>2.222432428535481</v>
+        <v>1.514644056931957</v>
       </c>
       <c r="AM16">
-        <v>2.24168824042239</v>
+        <v>1.896944139870205</v>
       </c>
       <c r="AN16">
-        <v>2.133246428602353</v>
+        <v>1.916393754370604</v>
       </c>
       <c r="AO16">
         <v>1.916393754370604</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>1.916393754370604</v>
       </c>
-      <c r="BA16">
-        <v>1.916393754370604</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.149937334619522</v>
-      </c>
-      <c r="AD17">
-        <v>1.164780679074617</v>
-      </c>
-      <c r="AE17">
-        <v>1.397615094068261</v>
-      </c>
-      <c r="AF17">
-        <v>1.076822158108381</v>
-      </c>
-      <c r="AG17">
-        <v>2.734582297284072</v>
-      </c>
       <c r="AH17">
-        <v>2.757622536716386</v>
+        <v>-1.600727426039583</v>
       </c>
       <c r="AI17">
-        <v>2.710321302292762</v>
+        <v>-0.7709779200558486</v>
       </c>
       <c r="AJ17">
-        <v>2.98855476234221</v>
+        <v>-0.4516299971683568</v>
       </c>
       <c r="AK17">
-        <v>2.346103318213988</v>
+        <v>-0.7589144949265214</v>
       </c>
       <c r="AL17">
-        <v>3.425670122124114</v>
+        <v>-0.06175132635745095</v>
       </c>
       <c r="AM17">
-        <v>3.429058262078644</v>
+        <v>0.5116467003986713</v>
       </c>
       <c r="AN17">
-        <v>3.260264546812519</v>
+        <v>0.4136280550221194</v>
       </c>
       <c r="AO17">
-        <v>-0.1354275086414392</v>
+        <v>0.3530477102890783</v>
       </c>
       <c r="AP17">
-        <v>-0.6800305325212697</v>
+        <v>-0.8557279162653919</v>
       </c>
       <c r="AQ17">
-        <v>-0.6738153173904027</v>
+        <v>-0.7016063587211741</v>
       </c>
       <c r="AR17">
-        <v>-0.692247441448246</v>
+        <v>-0.7359525160776204</v>
       </c>
       <c r="AS17">
         <v>-0.7359525160776204</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-0.7359525160776204</v>
       </c>
-      <c r="BA17">
-        <v>-0.7359525160776204</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>4.378041814687839</v>
-      </c>
-      <c r="AH18">
-        <v>4.325774015846018</v>
-      </c>
-      <c r="AI18">
-        <v>4.066652826284112</v>
-      </c>
-      <c r="AJ18">
-        <v>4.794722087312375</v>
-      </c>
-      <c r="AK18">
-        <v>1.674444458203883</v>
-      </c>
       <c r="AL18">
-        <v>1.643886797646643</v>
+        <v>-0.3142152855612146</v>
       </c>
       <c r="AM18">
-        <v>2.321352549667011</v>
+        <v>-0.0494135395851969</v>
       </c>
       <c r="AN18">
-        <v>2.473389876274368</v>
+        <v>-0.2960652512497663</v>
       </c>
       <c r="AO18">
-        <v>1.756214305430781</v>
+        <v>2.074687352130522</v>
       </c>
       <c r="AP18">
-        <v>1.563059350442941</v>
+        <v>-0.2004689067778398</v>
       </c>
       <c r="AQ18">
-        <v>1.67670478866615</v>
+        <v>0.2942159770784825</v>
       </c>
       <c r="AR18">
-        <v>1.168821580544521</v>
+        <v>0.6923809915882817</v>
       </c>
       <c r="AS18">
-        <v>0.9794361377544636</v>
+        <v>-0.01286797263981843</v>
       </c>
       <c r="AT18">
-        <v>0.287495466512433</v>
+        <v>-0.1316183744203947</v>
       </c>
       <c r="AU18">
-        <v>0.1233178182500572</v>
+        <v>-0.1754728623905355</v>
       </c>
       <c r="AV18">
-        <v>-0.09977030619552352</v>
+        <v>-0.187152549496028</v>
       </c>
       <c r="AW18">
         <v>-0.187152549496028</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-0.187152549496028</v>
       </c>
-      <c r="BA18">
-        <v>-0.187152549496028</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>3.010807871618226</v>
-      </c>
-      <c r="AL19">
-        <v>2.45903934821754</v>
-      </c>
-      <c r="AM19">
-        <v>2.696521498363547</v>
-      </c>
-      <c r="AN19">
-        <v>2.653102099511928</v>
-      </c>
-      <c r="AO19">
-        <v>1.985787849310694</v>
-      </c>
       <c r="AP19">
-        <v>1.192776732936873</v>
+        <v>-0.06115297969078171</v>
       </c>
       <c r="AQ19">
-        <v>1.255113466286106</v>
+        <v>0.3913752358667866</v>
       </c>
       <c r="AR19">
-        <v>1.042008608105394</v>
+        <v>1.196926293374756</v>
       </c>
       <c r="AS19">
-        <v>1.589722600931798</v>
+        <v>0.3229362634639799</v>
       </c>
       <c r="AT19">
-        <v>1.65944891182539</v>
+        <v>-0.09133135081734745</v>
       </c>
       <c r="AU19">
-        <v>1.77500207390533</v>
+        <v>-0.0331361487157622</v>
       </c>
       <c r="AV19">
-        <v>1.359191874382004</v>
+        <v>-0.3126391654689975</v>
       </c>
       <c r="AW19">
-        <v>0.7911557381817147</v>
+        <v>-0.1152140120150968</v>
       </c>
       <c r="AX19">
-        <v>0.3967335531545713</v>
+        <v>0.3903331526556864</v>
       </c>
       <c r="AY19">
-        <v>0.6196879289662949</v>
+        <v>0.5695821893874298</v>
       </c>
       <c r="AZ19">
-        <v>0.6151910652193671</v>
-      </c>
-      <c r="BA19">
         <v>0.6150340712028246</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.065272350065394</v>
-      </c>
-      <c r="AP20">
-        <v>0.5343727763462258</v>
-      </c>
-      <c r="AQ20">
-        <v>0.5974039403970899</v>
-      </c>
-      <c r="AR20">
-        <v>0.3415730562517982</v>
-      </c>
-      <c r="AS20">
-        <v>1.216272770774807</v>
-      </c>
       <c r="AT20">
-        <v>1.19476632814437</v>
+        <v>-0.1051772574394816</v>
       </c>
       <c r="AU20">
-        <v>1.406977718798919</v>
+        <v>0.0310212408159094</v>
       </c>
       <c r="AV20">
-        <v>1.528275819334968</v>
+        <v>-0.3601769225510032</v>
       </c>
       <c r="AW20">
-        <v>1.58943766652242</v>
+        <v>-0.544405487339128</v>
       </c>
       <c r="AX20">
-        <v>0.7407726443195539</v>
+        <v>-0.2264357368625403</v>
       </c>
       <c r="AY20">
-        <v>0.9145927822770572</v>
+        <v>0.316149716722669</v>
       </c>
       <c r="AZ20">
-        <v>1.258496331371473</v>
-      </c>
-      <c r="BA20">
-        <v>1.217702097822548</v>
+        <v>0.6473947787101642</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>1.321574084784949</v>
-      </c>
-      <c r="AT21">
-        <v>1.096542574597148</v>
-      </c>
-      <c r="AU21">
-        <v>1.152830392256265</v>
-      </c>
-      <c r="AV21">
-        <v>0.9727685621151894</v>
-      </c>
-      <c r="AW21">
-        <v>1.237682678545404</v>
-      </c>
       <c r="AX21">
-        <v>0.7525055720436047</v>
+        <v>-0.3725667185648485</v>
       </c>
       <c r="AY21">
-        <v>0.7483550522244808</v>
+        <v>0.1127973091898937</v>
       </c>
       <c r="AZ21">
-        <v>1.505221604294982</v>
-      </c>
-      <c r="BA21">
-        <v>1.519045701942523</v>
+        <v>0.4249997313001908</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.275550186093755</v>
-      </c>
-      <c r="AX22">
-        <v>0.6743811722919935</v>
-      </c>
-      <c r="AY22">
-        <v>0.8112182272489887</v>
-      </c>
-      <c r="AZ22">
-        <v>1.192156135563494</v>
-      </c>
-      <c r="BA22">
-        <v>1.384670923127995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.373083806996434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-0.8985012482809474</v>
       </c>
       <c r="AG17">
-        <v>-3.357986809108382</v>
+        <v>-4.582005882803108</v>
       </c>
       <c r="AH17">
         <v>-3.258619210312885</v>
@@ -2451,19 +2451,19 @@
         <v>0.02570757229449772</v>
       </c>
       <c r="AG18">
-        <v>-1.069210638149831</v>
+        <v>-5.994170454492942</v>
       </c>
       <c r="AH18">
-        <v>-2.035749133083187</v>
+        <v>-1.049961713694181</v>
       </c>
       <c r="AI18">
-        <v>-2.792286268255573</v>
+        <v>-1.267247591471965</v>
       </c>
       <c r="AJ18">
-        <v>-0.7241284594088016</v>
+        <v>-1.993193775713065</v>
       </c>
       <c r="AK18">
-        <v>-0.1388955462784724</v>
+        <v>-0.4671761491813031</v>
       </c>
       <c r="AL18">
         <v>0.4255262881966981</v>
@@ -2522,31 +2522,31 @@
         <v>0.433311239252121</v>
       </c>
       <c r="AG19">
-        <v>-0.6212658867530862</v>
+        <v>-2.429154247791077</v>
       </c>
       <c r="AH19">
-        <v>-1.254114631441261</v>
+        <v>-0.5839472457950468</v>
       </c>
       <c r="AI19">
-        <v>-2.462477360333626</v>
+        <v>-1.005653626649339</v>
       </c>
       <c r="AJ19">
-        <v>-0.1006764062950749</v>
+        <v>-1.870909066467608</v>
       </c>
       <c r="AK19">
-        <v>1.381312451245953</v>
+        <v>0.2002400689878225</v>
       </c>
       <c r="AL19">
-        <v>2.107044281672787</v>
+        <v>2.734996705911419</v>
       </c>
       <c r="AM19">
-        <v>2.610016230858681</v>
+        <v>1.709116405894839</v>
       </c>
       <c r="AN19">
-        <v>3.72986100763808</v>
+        <v>3.466439014514577</v>
       </c>
       <c r="AO19">
-        <v>3.463320568938566</v>
+        <v>3.487159633365255</v>
       </c>
       <c r="AP19">
         <v>3.293290997728171</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-2.081570250632547</v>
-      </c>
       <c r="AJ20">
-        <v>-0.9971085252578837</v>
+        <v>-1.657744765580182</v>
       </c>
       <c r="AK20">
-        <v>-0.5137236341531515</v>
+        <v>-0.8315249731727148</v>
       </c>
       <c r="AL20">
-        <v>-0.2104412720064452</v>
+        <v>0.09811555133605321</v>
       </c>
       <c r="AM20">
-        <v>0.4182551040150306</v>
+        <v>-0.3788276656591871</v>
       </c>
       <c r="AN20">
-        <v>1.357201584213352</v>
+        <v>1.000518914838766</v>
       </c>
       <c r="AO20">
-        <v>1.409962909690821</v>
+        <v>1.217008959015131</v>
       </c>
       <c r="AP20">
-        <v>1.50842747477733</v>
+        <v>1.813346177122299</v>
       </c>
       <c r="AQ20">
-        <v>0.2608494586689769</v>
+        <v>1.845950461732038</v>
       </c>
       <c r="AR20">
-        <v>-0.3358560228777674</v>
+        <v>-0.2883789941992343</v>
       </c>
       <c r="AS20">
-        <v>-0.2871245688614854</v>
+        <v>-0.1703190263133036</v>
       </c>
       <c r="AT20">
         <v>-0.2814561130375925</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>0.1968302787635157</v>
-      </c>
       <c r="AN21">
-        <v>0.7343926135062961</v>
+        <v>0.5980061189889252</v>
       </c>
       <c r="AO21">
-        <v>1.03901742934811</v>
+        <v>0.6218586480743582</v>
       </c>
       <c r="AP21">
-        <v>3.815946981505158</v>
+        <v>1.113296083470261</v>
       </c>
       <c r="AQ21">
-        <v>1.34681835462207</v>
+        <v>3.888091057873155</v>
       </c>
       <c r="AR21">
-        <v>1.155533515694374</v>
+        <v>1.082231571968229</v>
       </c>
       <c r="AS21">
-        <v>1.278647349573703</v>
+        <v>1.429443202289216</v>
       </c>
       <c r="AT21">
-        <v>0.06837453075889677</v>
+        <v>1.03999779343249</v>
       </c>
       <c r="AU21">
-        <v>-0.4741729829813357</v>
+        <v>-0.2065224040868396</v>
       </c>
       <c r="AV21">
-        <v>-1.054811008161194</v>
+        <v>-1.006986634874207</v>
       </c>
       <c r="AW21">
-        <v>-0.9636841177852018</v>
+        <v>-0.9450815092640785</v>
       </c>
       <c r="AX21">
         <v>-0.6470065423293869</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.591489510673227</v>
-      </c>
       <c r="AR22">
-        <v>1.590159862310037</v>
+        <v>1.427775933988684</v>
       </c>
       <c r="AS22">
-        <v>2.049507739021572</v>
+        <v>1.721608488177617</v>
       </c>
       <c r="AT22">
-        <v>0.9021348141823982</v>
+        <v>1.974864482931915</v>
       </c>
       <c r="AU22">
-        <v>0.061310808297943</v>
+        <v>0.8057832540544929</v>
       </c>
       <c r="AV22">
-        <v>-0.009717596728553435</v>
+        <v>-0.06480517924443152</v>
       </c>
       <c r="AW22">
-        <v>-0.2108962101654677</v>
+        <v>0.1338934428749328</v>
       </c>
       <c r="AX22">
-        <v>1.000784331770643</v>
+        <v>0.9227184786156029</v>
       </c>
       <c r="AY22">
-        <v>2.411585640991931</v>
+        <v>2.137819896031901</v>
       </c>
       <c r="AZ22">
-        <v>1.593155398714674</v>
+        <v>1.431852292002267</v>
       </c>
       <c r="BA22">
-        <v>2.053865394798304</v>
+        <v>2.034296706251992</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.05763059523857805</v>
-      </c>
       <c r="AV23">
-        <v>0.06883026959281224</v>
+        <v>-0.06912492694426398</v>
       </c>
       <c r="AW23">
-        <v>-0.3171545625776706</v>
+        <v>0.1442376756474406</v>
       </c>
       <c r="AX23">
-        <v>-0.01945371201215185</v>
+        <v>0.1478681263037407</v>
       </c>
       <c r="AY23">
-        <v>0.3354683421588955</v>
+        <v>0.3874019458836031</v>
       </c>
       <c r="AZ23">
-        <v>0.1924237296221154</v>
+        <v>-0.3363763021410726</v>
       </c>
       <c r="BA23">
-        <v>0.8520203638610502</v>
+        <v>0.6096213037243059</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.2261965176174829</v>
-      </c>
       <c r="AZ24">
-        <v>0.27682757896621</v>
+        <v>-0.2166161039191539</v>
       </c>
       <c r="BA24">
-        <v>0.8240186880491995</v>
+        <v>0.528930695481411</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>1.921213898190066</v>
+      </c>
+      <c r="C3">
+        <v>2.228397109637203</v>
+      </c>
+      <c r="D3">
+        <v>1.929644353290927</v>
+      </c>
+      <c r="E3">
+        <v>-0.4626567965509643</v>
+      </c>
+      <c r="F3">
+        <v>-0.8792832172735632</v>
+      </c>
+      <c r="G3">
+        <v>-0.9660231000212183</v>
+      </c>
+      <c r="H3">
+        <v>-1.117427301917984</v>
+      </c>
+      <c r="I3">
+        <v>-1.271358829139191</v>
+      </c>
+      <c r="J3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="K3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="L3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="M3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="N3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="O3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="P3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Q3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="R3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="S3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="T3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="U3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="V3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="W3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="X3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Y3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Z3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AA3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AB3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AC3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AD3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AE3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AF3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AG3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AH3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AI3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AK3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AL3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AM3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AN3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AO3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AP3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AR3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AS3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AT3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AU3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AV3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AW3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AX3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AY3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AZ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="BA3">
+        <v>-1.639753924881249</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.144978573787081</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>1.028506161176068</v>
+        <v>1.868002471658059</v>
       </c>
       <c r="D4">
-        <v>1.206584777779152</v>
+        <v>1.65123796943254</v>
       </c>
       <c r="E4">
-        <v>1.206584777779152</v>
+        <v>-0.2018858887078645</v>
       </c>
       <c r="F4">
-        <v>1.219200732230608</v>
+        <v>-0.1037449741509211</v>
       </c>
       <c r="G4">
-        <v>1.219200732230608</v>
+        <v>-0.4861108058567654</v>
       </c>
       <c r="H4">
-        <v>1.219200732230608</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="I4">
-        <v>1.219200732230608</v>
+        <v>0.8402098845508466</v>
       </c>
       <c r="J4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="K4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="L4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="M4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="N4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="O4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="P4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Q4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="R4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="S4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="T4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="U4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="V4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="W4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="X4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Y4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Z4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AB4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AC4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AD4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AE4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AF4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AG4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AH4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AI4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AJ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AK4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AL4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AM4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AN4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AO4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AP4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AQ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AR4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AS4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AT4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AU4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AV4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AW4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AX4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AY4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AZ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="BA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>1.854677717601594</v>
-      </c>
-      <c r="C5">
-        <v>1.981300392979479</v>
-      </c>
-      <c r="D5">
-        <v>1.381024225294869</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.42876627319084</v>
+        <v>0.2542806707673373</v>
       </c>
       <c r="F5">
-        <v>1.356047291861184</v>
+        <v>-0.0477453683196627</v>
       </c>
       <c r="G5">
-        <v>1.356047291861184</v>
+        <v>0.2108047537406454</v>
       </c>
       <c r="H5">
-        <v>0.776457080299342</v>
+        <v>1.899713704008654</v>
       </c>
       <c r="I5">
-        <v>0.776457080299342</v>
+        <v>2.490556233265284</v>
       </c>
       <c r="J5">
-        <v>0.776457080299342</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="K5">
-        <v>0.776457080299342</v>
+        <v>2.864443198590783</v>
       </c>
       <c r="L5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="M5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="N5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="O5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="P5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Q5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="R5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="S5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="T5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="U5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="V5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="W5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="X5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Y5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Z5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AB5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AC5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AD5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AE5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AF5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AG5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AH5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AI5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AJ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AK5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AL5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AM5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AN5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AO5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AP5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AQ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AR5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AS5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AT5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AU5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AV5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AW5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AX5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AY5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AZ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="BA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>1.921213898190088</v>
-      </c>
-      <c r="C6">
-        <v>2.228397109637226</v>
-      </c>
-      <c r="D6">
-        <v>1.929644353290927</v>
-      </c>
-      <c r="E6">
-        <v>-0.4626567965509865</v>
-      </c>
-      <c r="F6">
-        <v>-0.8792832172735965</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.9660231000212405</v>
+        <v>-0.1394909654825804</v>
       </c>
       <c r="H6">
-        <v>-1.117427301917973</v>
+        <v>0.2992445208178207</v>
       </c>
       <c r="I6">
-        <v>-1.27135882913918</v>
+        <v>0.96842791562195</v>
       </c>
       <c r="J6">
-        <v>-1.639753924881238</v>
+        <v>1.722110645261954</v>
       </c>
       <c r="K6">
-        <v>-1.639753924881238</v>
+        <v>1.175152734113438</v>
       </c>
       <c r="L6">
-        <v>-1.639753924881238</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="M6">
-        <v>-1.639753924881238</v>
+        <v>0.502368887556881</v>
       </c>
       <c r="N6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="O6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="P6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Q6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="R6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="S6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="T6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="U6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="V6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="W6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="X6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Y6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Z6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AB6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AC6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AD6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AE6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AF6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AG6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AH6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AI6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AJ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AK6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AL6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AM6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AN6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AO6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AP6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AQ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AR6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AS6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AT6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AU6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AV6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AW6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AX6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AY6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AZ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="BA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>1.868002471658059</v>
-      </c>
-      <c r="D7">
-        <v>1.651237969432562</v>
-      </c>
-      <c r="E7">
-        <v>-0.2018858887078534</v>
-      </c>
-      <c r="F7">
-        <v>-0.10374497415091</v>
-      </c>
-      <c r="G7">
-        <v>-0.4861108058567654</v>
-      </c>
-      <c r="H7">
-        <v>0.9337833426867448</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.8402098845508466</v>
+        <v>0.7458223282515997</v>
       </c>
       <c r="J7">
-        <v>0.8292345478106755</v>
+        <v>1.670669279485759</v>
       </c>
       <c r="K7">
-        <v>0.8292345478106755</v>
+        <v>1.698182372097512</v>
       </c>
       <c r="L7">
-        <v>1.146671111633779</v>
+        <v>0.6480763427742176</v>
       </c>
       <c r="M7">
-        <v>1.146671111633779</v>
+        <v>-0.2674335569108788</v>
       </c>
       <c r="N7">
-        <v>1.146671111633779</v>
+        <v>0.2545814083968478</v>
       </c>
       <c r="O7">
-        <v>1.146671111633779</v>
+        <v>0.3132191478737889</v>
       </c>
       <c r="P7">
-        <v>1.146671111633779</v>
+        <v>0.2793044818785395</v>
       </c>
       <c r="Q7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="R7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="S7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="T7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="U7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="V7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="W7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="X7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Y7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Z7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AB7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AC7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AD7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AE7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AF7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AG7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AH7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AI7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AJ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AK7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AL7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AM7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AN7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AO7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AP7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AQ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AR7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AS7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AT7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AU7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AV7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AW7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AX7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AY7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AZ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="BA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>0.2542806707673373</v>
-      </c>
-      <c r="F8">
-        <v>-0.04774536831965159</v>
-      </c>
-      <c r="G8">
-        <v>0.2108047537406676</v>
-      </c>
-      <c r="H8">
-        <v>1.899713704008654</v>
-      </c>
-      <c r="I8">
-        <v>2.490556233265284</v>
-      </c>
-      <c r="J8">
-        <v>2.791140000794279</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>2.864443198590783</v>
+        <v>1.893152717629953</v>
       </c>
       <c r="L8">
-        <v>3.022590861563312</v>
+        <v>1.448362291275029</v>
       </c>
       <c r="M8">
-        <v>3.022590861563312</v>
+        <v>0.679606031449409</v>
       </c>
       <c r="N8">
-        <v>3.235358612404027</v>
+        <v>1.223618887196509</v>
       </c>
       <c r="O8">
-        <v>3.235358612404027</v>
+        <v>2.038609866767915</v>
       </c>
       <c r="P8">
-        <v>3.235358612404027</v>
+        <v>1.297015177357297</v>
       </c>
       <c r="Q8">
-        <v>3.235358612404027</v>
+        <v>1.308067824417058</v>
       </c>
       <c r="R8">
-        <v>3.235358612404027</v>
+        <v>1.416366389268031</v>
       </c>
       <c r="S8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="T8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="U8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="V8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="W8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="X8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Y8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Z8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AB8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AC8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AD8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AE8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AF8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AG8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AH8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AI8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AJ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AK8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AL8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AM8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AN8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AO8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AP8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AQ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AR8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AS8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AT8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AU8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AV8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AW8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AX8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AY8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AZ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="BA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-0.1394909654825804</v>
-      </c>
-      <c r="H9">
-        <v>0.2992445208178207</v>
-      </c>
-      <c r="I9">
-        <v>0.9684279156219944</v>
-      </c>
-      <c r="J9">
-        <v>1.722110645261998</v>
-      </c>
-      <c r="K9">
-        <v>1.175152734113438</v>
-      </c>
-      <c r="L9">
-        <v>0.4451370000809973</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.5023688875569254</v>
+        <v>0.7225019177211855</v>
       </c>
       <c r="N9">
-        <v>0.5820920650085881</v>
+        <v>0.6945881967294953</v>
       </c>
       <c r="O9">
-        <v>0.5820920650085881</v>
+        <v>1.325176859452348</v>
       </c>
       <c r="P9">
-        <v>0.2616707458898082</v>
+        <v>0.309136676902555</v>
       </c>
       <c r="Q9">
-        <v>0.2616707458898082</v>
+        <v>1.566972126803345</v>
       </c>
       <c r="R9">
-        <v>0.2616707458898082</v>
+        <v>1.365576377841027</v>
       </c>
       <c r="S9">
-        <v>0.2616707458898082</v>
+        <v>1.351085699872168</v>
       </c>
       <c r="T9">
-        <v>0.2616707458898082</v>
+        <v>1.257259712492265</v>
       </c>
       <c r="U9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="V9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="W9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="X9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Y9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Z9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AB9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AC9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AD9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AE9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AF9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AG9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AH9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AI9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AJ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AK9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AL9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AM9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AN9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AO9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AP9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AQ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AR9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AS9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AT9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AU9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AV9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AW9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AX9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AY9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AZ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="BA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>0.7458223282515775</v>
-      </c>
-      <c r="J10">
-        <v>1.670669279485737</v>
-      </c>
-      <c r="K10">
-        <v>1.69818237209749</v>
-      </c>
-      <c r="L10">
-        <v>0.6480763427741953</v>
-      </c>
-      <c r="M10">
-        <v>-0.2674335569108899</v>
-      </c>
-      <c r="N10">
-        <v>0.2545814083968478</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.3132191478738111</v>
+        <v>0.9231138550573226</v>
       </c>
       <c r="P10">
-        <v>0.2793044818785173</v>
+        <v>0.4987962263704793</v>
       </c>
       <c r="Q10">
-        <v>0.224159170712146</v>
+        <v>1.522808462763692</v>
       </c>
       <c r="R10">
-        <v>0.224159170712146</v>
+        <v>1.582979977679555</v>
       </c>
       <c r="S10">
-        <v>0.224159170712146</v>
+        <v>2.246337373618967</v>
       </c>
       <c r="T10">
-        <v>0.224159170712146</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="U10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="V10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="W10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="X10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Y10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Z10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AB10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AC10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AD10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AE10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AF10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AG10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AH10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AI10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AJ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AK10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AL10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AM10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AN10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AO10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AP10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AQ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AR10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AS10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AT10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AU10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AV10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AW10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AX10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AY10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AZ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="BA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.893152717629909</v>
-      </c>
-      <c r="L11">
-        <v>1.448362291275052</v>
-      </c>
-      <c r="M11">
-        <v>0.679606031449409</v>
-      </c>
-      <c r="N11">
-        <v>1.223618887196531</v>
-      </c>
-      <c r="O11">
-        <v>2.038609866767938</v>
-      </c>
-      <c r="P11">
-        <v>1.297015177357297</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.308067824417081</v>
+        <v>1.488781645894677</v>
       </c>
       <c r="R11">
-        <v>1.416366389268053</v>
+        <v>1.645106443838351</v>
       </c>
       <c r="S11">
-        <v>1.466097127690258</v>
+        <v>1.693557061600948</v>
       </c>
       <c r="T11">
-        <v>1.466097127690258</v>
+        <v>1.401113624217065</v>
       </c>
       <c r="U11">
-        <v>1.466097127690258</v>
+        <v>1.777150434343544</v>
       </c>
       <c r="V11">
-        <v>1.466097127690258</v>
+        <v>2.18621550610123</v>
       </c>
       <c r="W11">
-        <v>1.466097127690258</v>
+        <v>2.197155972241061</v>
       </c>
       <c r="X11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Y11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Z11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AB11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AC11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AD11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AE11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AF11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AG11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AH11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AI11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AJ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AK11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AL11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AM11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AN11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AO11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AP11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AQ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AR11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AS11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AT11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AU11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AV11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AW11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AX11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AY11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AZ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="BA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.7225019177211633</v>
-      </c>
-      <c r="N12">
-        <v>0.6945881967295175</v>
-      </c>
-      <c r="O12">
-        <v>1.325176859452326</v>
-      </c>
-      <c r="P12">
-        <v>0.309136676902555</v>
-      </c>
-      <c r="Q12">
-        <v>1.566972126803345</v>
-      </c>
-      <c r="R12">
-        <v>1.365576377841027</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.351085699872145</v>
+        <v>1.590410198556858</v>
       </c>
       <c r="T12">
-        <v>1.257259712492242</v>
+        <v>1.481331796772833</v>
       </c>
       <c r="U12">
-        <v>1.254835209245964</v>
+        <v>1.905564797014669</v>
       </c>
       <c r="V12">
-        <v>1.254835209245964</v>
+        <v>2.357704431248386</v>
       </c>
       <c r="W12">
-        <v>1.254835209245964</v>
+        <v>1.953801996162019</v>
       </c>
       <c r="X12">
-        <v>1.254835209245964</v>
+        <v>1.741137453897323</v>
       </c>
       <c r="Y12">
-        <v>1.254835209245964</v>
+        <v>1.963716944695593</v>
       </c>
       <c r="Z12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AA12">
-        <v>1.254835209245964</v>
+        <v>1.91613940919908</v>
       </c>
       <c r="AB12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AC12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AD12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AE12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AF12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AG12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AH12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AI12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AJ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AK12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AL12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AM12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AN12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AO12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AP12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AQ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AR12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AS12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AT12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AU12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AV12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AW12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AX12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AY12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AZ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="BA12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.9231138550573448</v>
-      </c>
-      <c r="P13">
-        <v>0.4987962263705237</v>
-      </c>
-      <c r="Q13">
-        <v>1.522808462763714</v>
-      </c>
-      <c r="R13">
-        <v>1.582979977679533</v>
-      </c>
-      <c r="S13">
-        <v>2.246337373619012</v>
-      </c>
-      <c r="T13">
-        <v>2.204449574611278</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.247112760224135</v>
+        <v>1.988587841818612</v>
       </c>
       <c r="V13">
-        <v>2.247112760224135</v>
+        <v>2.201618631018931</v>
       </c>
       <c r="W13">
-        <v>2.247112760224135</v>
+        <v>2.2850393561338</v>
       </c>
       <c r="X13">
-        <v>2.247112760224135</v>
+        <v>2.08247707460909</v>
       </c>
       <c r="Y13">
-        <v>2.247112760224135</v>
+        <v>2.263031582094888</v>
       </c>
       <c r="Z13">
-        <v>2.247112760224135</v>
+        <v>2.36261304543155</v>
       </c>
       <c r="AA13">
-        <v>2.247112760224135</v>
+        <v>1.831523226563148</v>
       </c>
       <c r="AB13">
-        <v>2.247112760224135</v>
+        <v>1.562095320687429</v>
       </c>
       <c r="AC13">
-        <v>2.247112760224135</v>
+        <v>1.657291696732699</v>
       </c>
       <c r="AD13">
-        <v>2.247112760224135</v>
+        <v>1.457852003181337</v>
       </c>
       <c r="AE13">
-        <v>2.247112760224135</v>
+        <v>1.358093434244112</v>
       </c>
       <c r="AF13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AG13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AH13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AI13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AJ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AK13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AL13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AM13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AN13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AO13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AP13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AQ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AR13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AS13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AT13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AU13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AV13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AW13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AX13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AY13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AZ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="BA13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.488781645894655</v>
-      </c>
-      <c r="R14">
-        <v>1.645106443838351</v>
-      </c>
-      <c r="S14">
-        <v>1.693557061600992</v>
-      </c>
-      <c r="T14">
-        <v>1.401113624217043</v>
-      </c>
-      <c r="U14">
-        <v>1.777150434343522</v>
-      </c>
-      <c r="V14">
-        <v>2.18621550610123</v>
-      </c>
-      <c r="W14">
-        <v>2.197155972241038</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.23122668424911</v>
+        <v>2.117672991692077</v>
       </c>
       <c r="Y14">
-        <v>2.23122668424911</v>
+        <v>2.103722258194995</v>
       </c>
       <c r="Z14">
-        <v>2.23122668424911</v>
+        <v>2.085242065602144</v>
       </c>
       <c r="AA14">
-        <v>2.23122668424911</v>
+        <v>2.069147625228918</v>
       </c>
       <c r="AB14">
-        <v>2.23122668424911</v>
+        <v>1.845103901518907</v>
       </c>
       <c r="AC14">
-        <v>2.23122668424911</v>
+        <v>1.670042545405948</v>
       </c>
       <c r="AD14">
-        <v>2.23122668424911</v>
+        <v>0.7756897792100093</v>
       </c>
       <c r="AE14">
-        <v>2.23122668424911</v>
+        <v>0.9716673922242069</v>
       </c>
       <c r="AF14">
-        <v>2.23122668424911</v>
+        <v>-0.8985012482809474</v>
       </c>
       <c r="AG14">
-        <v>2.23122668424911</v>
+        <v>-4.58200588280312</v>
       </c>
       <c r="AH14">
-        <v>2.23122668424911</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="AI14">
-        <v>2.23122668424911</v>
+        <v>-3.312413209132492</v>
       </c>
       <c r="AJ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AK14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AL14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AM14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AN14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AO14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AP14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AQ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AR14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AS14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AT14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AU14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AV14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AW14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AX14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AY14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AZ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="BA14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.590410198556858</v>
-      </c>
-      <c r="T15">
-        <v>1.481331796772856</v>
-      </c>
-      <c r="U15">
-        <v>1.905564797014625</v>
-      </c>
-      <c r="V15">
-        <v>2.357704431248409</v>
-      </c>
-      <c r="W15">
-        <v>1.953801996161997</v>
-      </c>
-      <c r="X15">
-        <v>1.741137453897301</v>
-      </c>
-      <c r="Y15">
-        <v>1.963716944695593</v>
-      </c>
-      <c r="Z15">
-        <v>1.911050033324102</v>
-      </c>
-      <c r="AA15">
-        <v>1.916139409199058</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.911050033324102</v>
+        <v>1.914546564581276</v>
       </c>
       <c r="AC15">
-        <v>1.74379831133713</v>
+        <v>1.785179517034385</v>
       </c>
       <c r="AD15">
-        <v>1.74379831133713</v>
+        <v>1.453012198573811</v>
       </c>
       <c r="AE15">
-        <v>1.74379831133713</v>
+        <v>1.221567067111828</v>
       </c>
       <c r="AF15">
-        <v>1.74379831133713</v>
+        <v>0.02570757229445331</v>
       </c>
       <c r="AG15">
-        <v>1.74379831133713</v>
+        <v>-5.994170454492931</v>
       </c>
       <c r="AH15">
-        <v>1.74379831133713</v>
+        <v>-1.049961713694159</v>
       </c>
       <c r="AI15">
-        <v>1.74379831133713</v>
+        <v>-1.267247591471976</v>
       </c>
       <c r="AJ15">
-        <v>1.74379831133713</v>
+        <v>-1.993193775713065</v>
       </c>
       <c r="AK15">
-        <v>1.74379831133713</v>
+        <v>-0.4671761491813142</v>
       </c>
       <c r="AL15">
-        <v>1.74379831133713</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="AM15">
-        <v>1.74379831133713</v>
+        <v>0.3378790965023581</v>
       </c>
       <c r="AN15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AO15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AP15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AQ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AR15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AS15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AT15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AU15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AV15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AW15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AX15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AY15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AZ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="BA15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.98858784181859</v>
-      </c>
-      <c r="V16">
-        <v>2.201618631018909</v>
-      </c>
-      <c r="W16">
-        <v>2.285039356133778</v>
-      </c>
-      <c r="X16">
-        <v>2.082477074609068</v>
-      </c>
-      <c r="Y16">
-        <v>2.26303158209491</v>
-      </c>
-      <c r="Z16">
-        <v>2.362613045431528</v>
-      </c>
-      <c r="AA16">
-        <v>1.83152322656317</v>
-      </c>
-      <c r="AB16">
-        <v>1.562095320687407</v>
-      </c>
-      <c r="AC16">
-        <v>1.657291696732699</v>
-      </c>
-      <c r="AD16">
-        <v>1.457852003181337</v>
-      </c>
-      <c r="AE16">
-        <v>1.358093434244134</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.627508371112341</v>
+        <v>0.4333112392521432</v>
       </c>
       <c r="AG16">
-        <v>1.627508371112341</v>
+        <v>-2.429154247791054</v>
       </c>
       <c r="AH16">
-        <v>1.627508371112341</v>
+        <v>-0.5839472457950579</v>
       </c>
       <c r="AI16">
-        <v>1.627508371112341</v>
+        <v>-1.005653626649339</v>
       </c>
       <c r="AJ16">
-        <v>1.627508371112341</v>
+        <v>-1.870909066467608</v>
       </c>
       <c r="AK16">
-        <v>1.627508371112341</v>
+        <v>0.2002400689878225</v>
       </c>
       <c r="AL16">
-        <v>1.627508371112341</v>
+        <v>2.734996705911397</v>
       </c>
       <c r="AM16">
-        <v>1.627508371112341</v>
+        <v>1.709116405894862</v>
       </c>
       <c r="AN16">
-        <v>1.627508371112341</v>
+        <v>3.466439014514577</v>
       </c>
       <c r="AO16">
-        <v>1.627508371112341</v>
+        <v>3.487159633365255</v>
       </c>
       <c r="AP16">
-        <v>1.627508371112341</v>
+        <v>3.293290997728171</v>
       </c>
       <c r="AQ16">
-        <v>1.627508371112341</v>
+        <v>3.16464878088103</v>
       </c>
       <c r="AR16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AS16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AT16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AU16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AV16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AW16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AX16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AY16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AZ16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="BA16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>2.117672991692077</v>
-      </c>
-      <c r="Y17">
-        <v>2.103722258195018</v>
-      </c>
-      <c r="Z17">
-        <v>2.085242065602144</v>
-      </c>
-      <c r="AA17">
-        <v>2.06914762522894</v>
-      </c>
-      <c r="AB17">
-        <v>1.845103901518885</v>
-      </c>
-      <c r="AC17">
-        <v>1.670042545405925</v>
-      </c>
-      <c r="AD17">
-        <v>0.7756897792100315</v>
-      </c>
-      <c r="AE17">
-        <v>0.9716673922241847</v>
-      </c>
-      <c r="AF17">
-        <v>-0.8985012482809474</v>
-      </c>
-      <c r="AG17">
-        <v>-4.582005882803108</v>
-      </c>
-      <c r="AH17">
-        <v>-3.258619210312885</v>
-      </c>
-      <c r="AI17">
-        <v>-3.31241320913247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-3.216704811113158</v>
+        <v>-1.657744765580194</v>
       </c>
       <c r="AK17">
-        <v>-3.216704811113158</v>
+        <v>-0.8315249731727037</v>
       </c>
       <c r="AL17">
-        <v>-3.216704811113158</v>
+        <v>0.09811555133605321</v>
       </c>
       <c r="AM17">
-        <v>-3.216704811113158</v>
+        <v>-0.3788276656591538</v>
       </c>
       <c r="AN17">
-        <v>-3.216704811113158</v>
+        <v>1.000518914838766</v>
       </c>
       <c r="AO17">
-        <v>-3.216704811113158</v>
+        <v>1.217008959015131</v>
       </c>
       <c r="AP17">
-        <v>-3.216704811113158</v>
+        <v>1.813346177122321</v>
       </c>
       <c r="AQ17">
-        <v>-3.216704811113158</v>
+        <v>1.845950461732082</v>
       </c>
       <c r="AR17">
-        <v>-3.216704811113158</v>
+        <v>-0.2883789941992232</v>
       </c>
       <c r="AS17">
-        <v>-3.216704811113158</v>
+        <v>-0.1703190263132703</v>
       </c>
       <c r="AT17">
-        <v>-3.216704811113158</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="AU17">
-        <v>-3.216704811113158</v>
+        <v>-0.280872493597617</v>
       </c>
       <c r="AV17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AW17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AX17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AY17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AZ17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="BA17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.914546564581276</v>
-      </c>
-      <c r="AC18">
-        <v>1.785179517034408</v>
-      </c>
-      <c r="AD18">
-        <v>1.453012198573811</v>
-      </c>
-      <c r="AE18">
-        <v>1.221567067111873</v>
-      </c>
-      <c r="AF18">
-        <v>0.02570757229449772</v>
-      </c>
-      <c r="AG18">
-        <v>-5.994170454492942</v>
-      </c>
-      <c r="AH18">
-        <v>-1.049961713694181</v>
-      </c>
-      <c r="AI18">
-        <v>-1.267247591471965</v>
-      </c>
-      <c r="AJ18">
-        <v>-1.993193775713065</v>
-      </c>
-      <c r="AK18">
-        <v>-0.4671761491813031</v>
-      </c>
-      <c r="AL18">
-        <v>0.4255262881966981</v>
-      </c>
-      <c r="AM18">
-        <v>0.3378790965023581</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.3702368369074227</v>
+        <v>0.598006118988903</v>
       </c>
       <c r="AO18">
-        <v>0.3702368369074227</v>
+        <v>0.621858648074336</v>
       </c>
       <c r="AP18">
-        <v>0.3702368369074227</v>
+        <v>1.113296083470261</v>
       </c>
       <c r="AQ18">
-        <v>0.3702368369074227</v>
+        <v>3.888091057873155</v>
       </c>
       <c r="AR18">
-        <v>0.3702368369074227</v>
+        <v>1.082231571968229</v>
       </c>
       <c r="AS18">
-        <v>0.3702368369074227</v>
+        <v>1.429443202289193</v>
       </c>
       <c r="AT18">
-        <v>0.3702368369074227</v>
+        <v>1.03999779343249</v>
       </c>
       <c r="AU18">
-        <v>0.3702368369074227</v>
+        <v>-0.2065224040868396</v>
       </c>
       <c r="AV18">
-        <v>0.3702368369074227</v>
+        <v>-1.006986634874207</v>
       </c>
       <c r="AW18">
-        <v>0.3702368369074227</v>
+        <v>-0.9450815092640896</v>
       </c>
       <c r="AX18">
-        <v>0.3702368369074227</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="AY18">
-        <v>0.3702368369074227</v>
+        <v>-0.6056569328546479</v>
       </c>
       <c r="AZ18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
       <c r="BA18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.433311239252121</v>
-      </c>
-      <c r="AG19">
-        <v>-2.429154247791077</v>
-      </c>
-      <c r="AH19">
-        <v>-0.5839472457950468</v>
-      </c>
-      <c r="AI19">
-        <v>-1.005653626649339</v>
-      </c>
-      <c r="AJ19">
-        <v>-1.870909066467608</v>
-      </c>
-      <c r="AK19">
-        <v>0.2002400689878225</v>
-      </c>
-      <c r="AL19">
-        <v>2.734996705911419</v>
-      </c>
-      <c r="AM19">
-        <v>1.709116405894839</v>
-      </c>
-      <c r="AN19">
-        <v>3.466439014514577</v>
-      </c>
-      <c r="AO19">
-        <v>3.487159633365255</v>
-      </c>
-      <c r="AP19">
-        <v>3.293290997728171</v>
-      </c>
-      <c r="AQ19">
-        <v>3.164648780881052</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>3.384864575578228</v>
+        <v>1.427775933988684</v>
       </c>
       <c r="AS19">
-        <v>3.384864575578228</v>
+        <v>1.721608488177595</v>
       </c>
       <c r="AT19">
-        <v>3.384864575578228</v>
+        <v>1.974864482931915</v>
       </c>
       <c r="AU19">
-        <v>3.384864575578228</v>
+        <v>0.8057832540545151</v>
       </c>
       <c r="AV19">
-        <v>3.384864575578228</v>
+        <v>-0.06480517924443152</v>
       </c>
       <c r="AW19">
-        <v>3.384864575578228</v>
+        <v>0.1338934428748884</v>
       </c>
       <c r="AX19">
-        <v>3.384864575578228</v>
+        <v>0.9227184786156251</v>
       </c>
       <c r="AY19">
-        <v>3.384864575578228</v>
+        <v>2.137819896031878</v>
       </c>
       <c r="AZ19">
-        <v>3.384864575578228</v>
+        <v>1.431852292002245</v>
       </c>
       <c r="BA19">
-        <v>3.384864575578228</v>
+        <v>2.034296706251948</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-1.657744765580182</v>
-      </c>
-      <c r="AK20">
-        <v>-0.8315249731727148</v>
-      </c>
-      <c r="AL20">
-        <v>0.09811555133605321</v>
-      </c>
-      <c r="AM20">
-        <v>-0.3788276656591871</v>
-      </c>
-      <c r="AN20">
-        <v>1.000518914838766</v>
-      </c>
-      <c r="AO20">
-        <v>1.217008959015131</v>
-      </c>
-      <c r="AP20">
-        <v>1.813346177122299</v>
-      </c>
-      <c r="AQ20">
-        <v>1.845950461732038</v>
-      </c>
-      <c r="AR20">
-        <v>-0.2883789941992343</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1703190263133036</v>
-      </c>
-      <c r="AT20">
-        <v>-0.2814561130375925</v>
-      </c>
-      <c r="AU20">
-        <v>-0.2808724935976281</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.0770690339079394</v>
+        <v>-0.06912492694425287</v>
       </c>
       <c r="AW20">
-        <v>-0.0770690339079394</v>
+        <v>0.1442376756474406</v>
       </c>
       <c r="AX20">
-        <v>-0.0770690339079394</v>
+        <v>0.1478681263037407</v>
       </c>
       <c r="AY20">
-        <v>-0.0770690339079394</v>
+        <v>0.3874019458836253</v>
       </c>
       <c r="AZ20">
-        <v>-0.0770690339079394</v>
+        <v>-0.3363763021410726</v>
       </c>
       <c r="BA20">
-        <v>-0.0770690339079394</v>
+        <v>0.6096213037243281</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.5980061189889252</v>
-      </c>
-      <c r="AO21">
-        <v>0.6218586480743582</v>
-      </c>
-      <c r="AP21">
-        <v>1.113296083470261</v>
-      </c>
-      <c r="AQ21">
-        <v>3.888091057873155</v>
-      </c>
-      <c r="AR21">
-        <v>1.082231571968229</v>
-      </c>
-      <c r="AS21">
-        <v>1.429443202289216</v>
-      </c>
-      <c r="AT21">
-        <v>1.03999779343249</v>
-      </c>
-      <c r="AU21">
-        <v>-0.2065224040868396</v>
-      </c>
-      <c r="AV21">
-        <v>-1.006986634874207</v>
-      </c>
-      <c r="AW21">
-        <v>-0.9450815092640785</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6470065423293869</v>
-      </c>
-      <c r="AY21">
-        <v>-0.605656932854659</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.5776350899065585</v>
+        <v>-0.2166161039191539</v>
       </c>
       <c r="BA21">
-        <v>-0.5776350899065585</v>
+        <v>0.5289306954814332</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.427775933988684</v>
-      </c>
-      <c r="AS22">
-        <v>1.721608488177617</v>
-      </c>
-      <c r="AT22">
-        <v>1.974864482931915</v>
-      </c>
-      <c r="AU22">
-        <v>0.8057832540544929</v>
-      </c>
-      <c r="AV22">
-        <v>-0.06480517924443152</v>
-      </c>
-      <c r="AW22">
-        <v>0.1338934428749328</v>
-      </c>
-      <c r="AX22">
-        <v>0.9227184786156029</v>
-      </c>
-      <c r="AY22">
-        <v>2.137819896031901</v>
-      </c>
-      <c r="AZ22">
-        <v>1.431852292002267</v>
-      </c>
-      <c r="BA22">
-        <v>2.034296706251992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-0.06912492694426398</v>
-      </c>
-      <c r="AW23">
-        <v>0.1442376756474406</v>
-      </c>
-      <c r="AX23">
-        <v>0.1478681263037407</v>
-      </c>
-      <c r="AY23">
-        <v>0.3874019458836031</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.3363763021410726</v>
-      </c>
-      <c r="BA23">
-        <v>0.6096213037243059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.2166161039191539</v>
-      </c>
-      <c r="BA24">
-        <v>0.528930695481411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-1.639753924881249</v>
       </c>
+      <c r="BB3">
+        <v>-1.639753924881249</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>1.146671111633779</v>
       </c>
+      <c r="BB4">
+        <v>1.146671111633779</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>3.235358612404049</v>
       </c>
+      <c r="BB5">
+        <v>3.235358612404049</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>0.261670745889786</v>
       </c>
+      <c r="BB6">
+        <v>0.261670745889786</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.2241591707121238</v>
       </c>
+      <c r="BB7">
+        <v>0.2241591707121238</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.466097127690258</v>
       </c>
+      <c r="BB8">
+        <v>1.466097127690258</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>1.254835209245964</v>
       </c>
+      <c r="BB9">
+        <v>1.254835209245964</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.247112760224157</v>
       </c>
+      <c r="BB10">
+        <v>2.247112760224157</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.23122668424911</v>
       </c>
+      <c r="BB11">
+        <v>2.23122668424911</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.74379831133713</v>
       </c>
+      <c r="BB12">
+        <v>1.74379831133713</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>1.627508371112341</v>
       </c>
+      <c r="BB13">
+        <v>1.627508371112341</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-3.216704811113169</v>
       </c>
+      <c r="BB14">
+        <v>-3.216704811113169</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>0.3702368369074227</v>
       </c>
+      <c r="BB15">
+        <v>0.3702368369074227</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>3.384864575578206</v>
       </c>
+      <c r="BB16">
+        <v>3.384864575578206</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.07706903390789499</v>
       </c>
+      <c r="BB17">
+        <v>-0.07706903390789499</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.5776350899065585</v>
       </c>
+      <c r="BB18">
+        <v>-0.5776350899065585</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.034296706251948</v>
       </c>
+      <c r="BB19">
+        <v>2.043309689777173</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>0.6096213037243281</v>
       </c>
+      <c r="BB20">
+        <v>0.9040423720836799</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>0.5289306954814332</v>
       </c>
+      <c r="BB21">
+        <v>0.8372806497576768</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
